--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="11685" windowHeight="9682"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -22,13 +22,7 @@
     <t>所属机器</t>
   </si>
   <si>
-    <t>内网端口</t>
-  </si>
-  <si>
     <t>MachineId</t>
-  </si>
-  <si>
-    <t>InnerPort</t>
   </si>
   <si>
     <t>int</t>
@@ -39,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -66,9 +60,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,49 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -133,39 +151,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,38 +199,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,19 +219,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,13 +333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,145 +381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,25 +414,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,35 +445,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +457,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,16 +490,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,62 +1021,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E6"/>
+  <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6283185840708" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:5">
+    <row r="6" s="1" customFormat="1" spans="3:4">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>20101</v>
       </c>
     </row>
   </sheetData>
